--- a/ProjectManagementTools/highlight_extractor/excel outputs/highlights.xlsx
+++ b/ProjectManagementTools/highlight_extractor/excel outputs/highlights.xlsx
@@ -1,37 +1,284 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9be087efc1580dd1/Documents/Coding Projects/Python Projects/Takeoff AI/ProjectManagementTools/highlight_extractor/excel outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_6A69D6BF8710DB5A939A35115976C0F57073E8DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D5406E-9853-4CE5-96A6-5A85A1211D98}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="22932" yWindow="-4404" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+  <si>
+    <t>SB556084XU___</t>
+  </si>
+  <si>
+    <t>SB86163DFB</t>
+  </si>
+  <si>
+    <t>SB87019D2___</t>
+  </si>
+  <si>
+    <t>(305) SB17U12B___ 12" 23 .0</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>N/A.1</t>
+  </si>
+  <si>
+    <t>SB2107___</t>
+  </si>
+  <si>
+    <t>SB2101A kit includes two (2) clamps and hardware as</t>
+  </si>
+  <si>
+    <t>(0 .24)</t>
+  </si>
+  <si>
+    <t>(305) SB211312___ 12" 3 .70</t>
+  </si>
+  <si>
+    <t>(2 .0) 4 .3</t>
+  </si>
+  <si>
+    <t>SB210518___</t>
+  </si>
+  <si>
+    <t>84"</t>
+  </si>
+  <si>
+    <t>(2134) 84"</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>(12 .7)</t>
+  </si>
+  <si>
+    <t>112"</t>
+  </si>
+  <si>
+    <t>shown</t>
+  </si>
+  <si>
+    <t>0 .54</t>
+  </si>
+  <si>
+    <t>(457) SB211318___ 18" 5 .40</t>
+  </si>
+  <si>
+    <t>(2 .8) 6 .1</t>
+  </si>
+  <si>
+    <t>(457) 18"</t>
+  </si>
+  <si>
+    <t>(2133)</t>
+  </si>
+  <si>
+    <t>(92) 3 .6"</t>
+  </si>
+  <si>
+    <t>(61) 2 .4"</t>
+  </si>
+  <si>
+    <t>(10 .4)</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>(609) SB211324___ 24" 7 .20</t>
+  </si>
+  <si>
+    <t>(5 .7) 12 .5</t>
+  </si>
+  <si>
+    <t>(0 .77) 1 .7</t>
+  </si>
+  <si>
+    <t>39716"</t>
+  </si>
+  <si>
+    <t>(358) 14 .1"</t>
+  </si>
+  <si>
+    <t>(482) 19"</t>
+  </si>
+  <si>
+    <t>(457) SB17U18B___ 18" 28 .0</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>SB2101A___</t>
+  </si>
+  <si>
+    <t>(1 .68)</t>
+  </si>
+  <si>
+    <t>(327)</t>
+  </si>
+  <si>
+    <t>(1001)</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>(132) 5 .2"</t>
+  </si>
+  <si>
+    <t>(14 .5)</t>
+  </si>
+  <si>
+    <t>( .43) 0 .95</t>
+  </si>
+  <si>
+    <t>SB2114A___</t>
+  </si>
+  <si>
+    <t>(2 .45)</t>
+  </si>
+  <si>
+    <t>1278"</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>21 .4</t>
+  </si>
+  <si>
+    <t>(114) 4 .5"</t>
+  </si>
+  <si>
+    <t>runway accessories Cable runway accessories Cable</t>
+  </si>
+  <si>
+    <t>SB2107</t>
+  </si>
+  <si>
+    <t>0 .63</t>
+  </si>
+  <si>
+    <t>SB2114A Series include (2) wall clamps</t>
+  </si>
+  <si>
+    <t>(3 .26)</t>
+  </si>
+  <si>
+    <t>(479)</t>
+  </si>
+  <si>
+    <t>30 .0</t>
+  </si>
+  <si>
+    <t>(9 .7)</t>
+  </si>
+  <si>
+    <t>(1 .7) 3 .7</t>
+  </si>
+  <si>
+    <t>SB2107 kit includes two (2) clamps and hardware as shown</t>
+  </si>
+  <si>
+    <t>( .28)</t>
+  </si>
+  <si>
+    <t>SB2114A Series (Sold as one pair of clamps)</t>
+  </si>
+  <si>
+    <t>1878"</t>
+  </si>
+  <si>
+    <t>(13 .6)</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Kit For Single Stringers</t>
+  </si>
+  <si>
+    <t>SB2101A</t>
+  </si>
+  <si>
+    <t>(632)</t>
+  </si>
+  <si>
+    <t>2478"</t>
+  </si>
+  <si>
+    <t>(178)</t>
+  </si>
+  <si>
+    <t>7"</t>
+  </si>
+  <si>
+    <t>(101)</t>
+  </si>
+  <si>
+    <t>(609) 24"</t>
+  </si>
+  <si>
+    <t>SB213312___ SB213318___ SB213324___</t>
+  </si>
+  <si>
+    <t>104/108</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +293,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,45 +617,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Highlights</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SANTA ROSA CRIMINAL COURTHOUSE SANTA ROSA, CALIFORNIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PART 3 - EXECUTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Architect. Stamp each submittal with a uniform approval stamp; Contractors approval stamp prior to making the first</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
